--- a/csv/model/market share limits/formula_market share limits_QC.xlsx
+++ b/csv/model/market share limits/formula_market share limits_QC.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CIMS\dev\cims-models\csv\model\market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F182C1DC-DD13-4F26-9719-D31100C941B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F23B3BCA-649A-4BEC-9236-E9A7DA65A3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CF4932A-54FF-427C-A811-5020F6DD0CEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5AD4B362-7764-4FED-BA98-09795608400F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="280">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -447,9 +447,6 @@
   </si>
   <si>
     <t>Coal CCS</t>
-  </si>
-  <si>
-    <t>Coal steam turbine CCS</t>
   </si>
   <si>
     <t>CIMS.CAN.QC.Iron and Steel.Ventilation</t>
@@ -1249,8 +1246,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664035F2-709D-4474-9B1B-EC74B0DD4B64}">
-  <dimension ref="A1:X273"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D80099C-CB6D-4B86-AF3C-FD3B8AAE30D5}">
+  <dimension ref="A1:X272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X273"/>
@@ -7180,7 +7177,7 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -7192,10 +7189,10 @@
         <v>126</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -7204,42 +7201,42 @@
         <v>20</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q102">
-        <v>9.9999999999989008E-4</v>
+        <v>0.3</v>
       </c>
       <c r="R102">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="S102">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="T102">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="U102">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="V102">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -7254,7 +7251,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G103" t="s">
         <v>19</v>
@@ -7310,10 +7307,10 @@
         <v>126</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G104" t="s">
         <v>19</v>
@@ -7357,7 +7354,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -7372,7 +7369,7 @@
         <v>24</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G105" t="s">
         <v>19</v>
@@ -7416,7 +7413,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -7431,7 +7428,7 @@
         <v>24</v>
       </c>
       <c r="F106" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -7487,10 +7484,10 @@
         <v>126</v>
       </c>
       <c r="E107" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F107" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
@@ -7534,7 +7531,7 @@
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -7549,7 +7546,7 @@
         <v>28</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>19</v>
@@ -7593,7 +7590,7 @@
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -7608,7 +7605,7 @@
         <v>28</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -7664,10 +7661,10 @@
         <v>126</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
         <v>19</v>
@@ -7711,7 +7708,7 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -7726,7 +7723,7 @@
         <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>19</v>
@@ -7770,7 +7767,7 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -7785,7 +7782,7 @@
         <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>19</v>
@@ -7841,10 +7838,10 @@
         <v>126</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
         <v>19</v>
@@ -7900,7 +7897,7 @@
         <v>126</v>
       </c>
       <c r="E114" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
         <v>35</v>
@@ -7959,10 +7956,10 @@
         <v>126</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
         <v>19</v>
@@ -8018,7 +8015,7 @@
         <v>126</v>
       </c>
       <c r="E116" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
         <v>38</v>
@@ -8077,10 +8074,10 @@
         <v>126</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -8136,7 +8133,7 @@
         <v>126</v>
       </c>
       <c r="E118" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
         <v>41</v>
@@ -8195,10 +8192,10 @@
         <v>126</v>
       </c>
       <c r="E119" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G119" t="s">
         <v>19</v>
@@ -8207,42 +8204,42 @@
         <v>20</v>
       </c>
       <c r="M119">
-        <v>0.3</v>
+        <v>0.14545</v>
       </c>
       <c r="N119">
-        <v>0.3</v>
+        <v>0.14545</v>
       </c>
       <c r="O119">
-        <v>0.3</v>
+        <v>0.14545</v>
       </c>
       <c r="P119">
-        <v>0.3</v>
+        <v>0.14545</v>
       </c>
       <c r="Q119">
-        <v>0.3</v>
+        <v>0.14545</v>
       </c>
       <c r="R119">
-        <v>0.3</v>
+        <v>0.14545</v>
       </c>
       <c r="S119">
-        <v>0.3</v>
+        <v>0.14545</v>
       </c>
       <c r="T119">
-        <v>0.3</v>
+        <v>0.14545</v>
       </c>
       <c r="U119">
-        <v>0.3</v>
+        <v>0.14545</v>
       </c>
       <c r="V119">
-        <v>0.3</v>
+        <v>0.14545</v>
       </c>
       <c r="W119">
-        <v>0.3</v>
+        <v>0.14545</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -8260,48 +8257,48 @@
         <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L120" t="s">
         <v>20</v>
       </c>
       <c r="M120">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N120">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O120">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P120">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q120">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R120">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S120">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T120">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U120">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V120">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W120">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -8316,51 +8313,51 @@
         <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L121" t="s">
         <v>20</v>
       </c>
       <c r="M121">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="N121">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="O121">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="P121">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="Q121">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="R121">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="S121">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="T121">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="U121">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="V121">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="W121">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -8375,51 +8372,51 @@
         <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G122" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L122" t="s">
         <v>20</v>
       </c>
       <c r="M122">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="N122">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="O122">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="P122">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="Q122">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="R122">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="S122">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="T122">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="U122">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="V122">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="W122">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -8437,48 +8434,48 @@
         <v>149</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L123" t="s">
         <v>20</v>
       </c>
       <c r="M123">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="N123">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="O123">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="P123">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="Q123">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="R123">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="S123">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="T123">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="U123">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="V123">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="W123">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -8493,51 +8490,51 @@
         <v>44</v>
       </c>
       <c r="F124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G124" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L124" t="s">
         <v>20</v>
       </c>
       <c r="M124">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N124">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O124">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="P124">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Q124">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="R124">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="S124">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="T124">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="U124">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="V124">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="W124">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -8549,54 +8546,54 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F125" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L125" t="s">
         <v>20</v>
       </c>
       <c r="M125">
-        <v>0.06</v>
+        <v>0.14545</v>
       </c>
       <c r="N125">
-        <v>0.06</v>
+        <v>0.14545</v>
       </c>
       <c r="O125">
-        <v>0.06</v>
+        <v>0.14545</v>
       </c>
       <c r="P125">
-        <v>0.06</v>
+        <v>0.14545</v>
       </c>
       <c r="Q125">
-        <v>0.06</v>
+        <v>0.14545</v>
       </c>
       <c r="R125">
-        <v>0.06</v>
+        <v>0.14545</v>
       </c>
       <c r="S125">
-        <v>0.06</v>
+        <v>0.14545</v>
       </c>
       <c r="T125">
-        <v>0.06</v>
+        <v>0.14545</v>
       </c>
       <c r="U125">
-        <v>0.06</v>
+        <v>0.14545</v>
       </c>
       <c r="V125">
-        <v>0.06</v>
+        <v>0.14545</v>
       </c>
       <c r="W125">
-        <v>0.06</v>
+        <v>0.14545</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -8614,48 +8611,48 @@
         <v>124</v>
       </c>
       <c r="G126" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L126" t="s">
         <v>20</v>
       </c>
       <c r="M126">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N126">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O126">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P126">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q126">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R126">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S126">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T126">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U126">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V126">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="W126">
-        <v>0.14545</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -8670,51 +8667,51 @@
         <v>48</v>
       </c>
       <c r="F127" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L127" t="s">
         <v>20</v>
       </c>
       <c r="M127">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="N127">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="O127">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="P127">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="Q127">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="R127">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="S127">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="T127">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="U127">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="V127">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
       <c r="W127">
-        <v>0.14000000000000001</v>
+        <v>0.24726999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -8732,48 +8729,48 @@
         <v>50</v>
       </c>
       <c r="G128" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L128" t="s">
         <v>20</v>
       </c>
       <c r="M128">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="N128">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="O128">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="P128">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="Q128">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="R128">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="S128">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="T128">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="U128">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="V128">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="W128">
-        <v>0.24726999999999999</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -8788,51 +8785,51 @@
         <v>48</v>
       </c>
       <c r="F129" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G129" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L129" t="s">
         <v>20</v>
       </c>
       <c r="M129">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="N129">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="O129">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="P129">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="Q129">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="R129">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="S129">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="T129">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="U129">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="V129">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
       <c r="W129">
-        <v>0.24</v>
+        <v>6.182E-2</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -8850,43 +8847,43 @@
         <v>51</v>
       </c>
       <c r="G130" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L130" t="s">
         <v>20</v>
       </c>
       <c r="M130">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N130">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O130">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="P130">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Q130">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="R130">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="S130">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="T130">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="U130">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="V130">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
       <c r="W130">
-        <v>6.182E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.25">
@@ -8900,72 +8897,72 @@
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E131" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L131" t="s">
         <v>20</v>
       </c>
       <c r="M131">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="N131">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="O131">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="P131">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="Q131">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="R131">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="S131">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="T131">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="U131">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="V131">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="W131">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>151</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
         <v>152</v>
-      </c>
-      <c r="B132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" t="s">
-        <v>153</v>
       </c>
       <c r="E132" t="s">
         <v>17</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G132" t="s">
         <v>19</v>
@@ -9009,22 +9006,22 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
         <v>152</v>
       </c>
-      <c r="B133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>153</v>
-      </c>
       <c r="E133" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -9068,7 +9065,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -9077,13 +9074,13 @@
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E134" t="s">
         <v>24</v>
       </c>
       <c r="F134" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G134" t="s">
         <v>19</v>
@@ -9136,13 +9133,13 @@
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E135" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
         <v>19</v>
@@ -9195,10 +9192,10 @@
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E136" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
         <v>31</v>
@@ -9254,13 +9251,13 @@
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -9313,10 +9310,10 @@
         <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E138" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
         <v>35</v>
@@ -9372,13 +9369,13 @@
         <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
         <v>19</v>
@@ -9431,10 +9428,10 @@
         <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E140" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
         <v>38</v>
@@ -9490,13 +9487,13 @@
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
         <v>19</v>
@@ -9549,10 +9546,10 @@
         <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E142" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F142" t="s">
         <v>41</v>
@@ -9608,13 +9605,13 @@
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G143" t="s">
         <v>19</v>
@@ -9623,37 +9620,37 @@
         <v>20</v>
       </c>
       <c r="M143">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="N143">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="O143">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="P143">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="Q143">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="R143">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="S143">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="T143">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="U143">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="V143">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.25">
@@ -9667,13 +9664,13 @@
         <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E144" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F144" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G144" t="s">
         <v>19</v>
@@ -9682,42 +9679,42 @@
         <v>20</v>
       </c>
       <c r="M144">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="N144">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="O144">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="P144">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="Q144">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="R144">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="S144">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="T144">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="U144">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="V144">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="W144">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -9726,13 +9723,13 @@
         <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E145" t="s">
         <v>48</v>
       </c>
       <c r="F145" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="G145" t="s">
         <v>19</v>
@@ -9741,37 +9738,37 @@
         <v>20</v>
       </c>
       <c r="M145">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
       <c r="N145">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
       <c r="O145">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
       <c r="P145">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
       <c r="Q145">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
       <c r="R145">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
       <c r="S145">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
       <c r="T145">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
       <c r="U145">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
       <c r="V145">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
       <c r="W145">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
@@ -9785,13 +9782,13 @@
         <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E146" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="F146" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="G146" t="s">
         <v>19</v>
@@ -9800,57 +9797,57 @@
         <v>20</v>
       </c>
       <c r="M146">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N146">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="O146">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P146">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <v>0.16</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R146">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="S146">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="T146">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="U146">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="V146">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="W146">
-        <v>0.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
         <v>165</v>
       </c>
-      <c r="B147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" t="s">
-        <v>166</v>
-      </c>
       <c r="E147" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="F147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G147" t="s">
         <v>19</v>
@@ -9859,42 +9856,42 @@
         <v>20</v>
       </c>
       <c r="M147">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="N147">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="O147">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="P147">
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="Q147">
-        <v>9.9999999999989008E-4</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="R147">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="S147">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="T147">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="U147">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="V147">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -9903,7 +9900,7 @@
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E148" t="s">
         <v>54</v>
@@ -9953,7 +9950,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -9962,7 +9959,7 @@
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E149" t="s">
         <v>54</v>
@@ -10012,7 +10009,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -10021,7 +10018,7 @@
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E150" t="s">
         <v>54</v>
@@ -10071,7 +10068,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -10080,13 +10077,13 @@
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E151" t="s">
         <v>54</v>
       </c>
       <c r="F151" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="G151" t="s">
         <v>19</v>
@@ -10095,42 +10092,42 @@
         <v>20</v>
       </c>
       <c r="M151">
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N151">
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="O151">
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="P151">
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q151">
-        <v>1.2500000000000001E-2</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R151">
-        <v>1.2500000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="S151">
-        <v>1.2500000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="T151">
-        <v>1.2500000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="U151">
-        <v>1.2500000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="V151">
-        <v>1.2500000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="W151">
-        <v>1.2500000000000001E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -10139,13 +10136,13 @@
         <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E152" t="s">
         <v>54</v>
       </c>
       <c r="F152" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="G152" t="s">
         <v>19</v>
@@ -10189,7 +10186,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -10198,13 +10195,13 @@
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E153" t="s">
         <v>54</v>
       </c>
       <c r="F153" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G153" t="s">
         <v>19</v>
@@ -10213,42 +10210,42 @@
         <v>20</v>
       </c>
       <c r="M153">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N153">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O153">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P153">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q153">
-        <v>9.9999999999989008E-4</v>
+        <v>0.05</v>
       </c>
       <c r="R153">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="S153">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="T153">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="U153">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="V153">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -10257,13 +10254,13 @@
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E154" t="s">
         <v>54</v>
       </c>
       <c r="F154" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G154" t="s">
         <v>19</v>
@@ -10307,7 +10304,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -10316,13 +10313,13 @@
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E155" t="s">
         <v>54</v>
       </c>
       <c r="F155" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G155" t="s">
         <v>19</v>
@@ -10331,42 +10328,42 @@
         <v>20</v>
       </c>
       <c r="M155">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N155">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O155">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P155">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q155">
-        <v>0.05</v>
+        <v>9.9999999999989008E-4</v>
       </c>
       <c r="R155">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="S155">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="T155">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="U155">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="V155">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="W155">
-        <v>0.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -10375,13 +10372,13 @@
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E156" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F156" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G156" t="s">
         <v>19</v>
@@ -10390,42 +10387,42 @@
         <v>20</v>
       </c>
       <c r="M156">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N156">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O156">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P156">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q156">
-        <v>9.9999999999989008E-4</v>
+        <v>0.3</v>
       </c>
       <c r="R156">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="S156">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="T156">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="U156">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="V156">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -10434,13 +10431,13 @@
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E157" t="s">
         <v>17</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G157" t="s">
         <v>19</v>
@@ -10493,13 +10490,13 @@
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E158" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G158" t="s">
         <v>19</v>
@@ -10543,7 +10540,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -10552,13 +10549,13 @@
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E159" t="s">
         <v>24</v>
       </c>
       <c r="F159" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G159" t="s">
         <v>19</v>
@@ -10611,13 +10608,13 @@
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E160" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F160" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
         <v>19</v>
@@ -10661,7 +10658,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -10670,13 +10667,13 @@
         <v>15</v>
       </c>
       <c r="D161" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E161" t="s">
         <v>28</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>19</v>
@@ -10720,7 +10717,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -10729,13 +10726,13 @@
         <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E162" t="s">
         <v>28</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
         <v>19</v>
@@ -10788,13 +10785,13 @@
         <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E163" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
         <v>19</v>
@@ -10838,7 +10835,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -10847,13 +10844,13 @@
         <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E164" t="s">
         <v>33</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
         <v>19</v>
@@ -10897,7 +10894,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -10906,13 +10903,13 @@
         <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E165" t="s">
         <v>33</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
         <v>19</v>
@@ -10965,13 +10962,13 @@
         <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
         <v>19</v>
@@ -11024,10 +11021,10 @@
         <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E167" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F167" t="s">
         <v>35</v>
@@ -11083,13 +11080,13 @@
         <v>15</v>
       </c>
       <c r="D168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G168" t="s">
         <v>19</v>
@@ -11142,10 +11139,10 @@
         <v>15</v>
       </c>
       <c r="D169" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E169" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F169" t="s">
         <v>38</v>
@@ -11201,13 +11198,13 @@
         <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
         <v>19</v>
@@ -11260,10 +11257,10 @@
         <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E171" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F171" t="s">
         <v>41</v>
@@ -11319,13 +11316,13 @@
         <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="G172" t="s">
         <v>19</v>
@@ -11369,7 +11366,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -11378,7 +11375,7 @@
         <v>15</v>
       </c>
       <c r="D173" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E173" t="s">
         <v>120</v>
@@ -11387,43 +11384,43 @@
         <v>121</v>
       </c>
       <c r="G173" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L173" t="s">
         <v>20</v>
       </c>
       <c r="M173">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="N173">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="O173">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="P173">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="Q173">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="R173">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="S173">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="T173">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="U173">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="V173">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="W173">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.25">
@@ -11437,57 +11434,57 @@
         <v>15</v>
       </c>
       <c r="D174" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E174" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="F174" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="G174" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L174" t="s">
         <v>20</v>
       </c>
       <c r="M174">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="N174">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="O174">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="P174">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="Q174">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="R174">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="S174">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="T174">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="U174">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="V174">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="W174">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -11496,16 +11493,16 @@
         <v>15</v>
       </c>
       <c r="D175" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E175" t="s">
         <v>44</v>
       </c>
       <c r="F175" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G175" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L175" t="s">
         <v>20</v>
@@ -11546,7 +11543,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -11555,16 +11552,16 @@
         <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E176" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F176" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="G176" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L176" t="s">
         <v>20</v>
@@ -11605,7 +11602,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -11614,7 +11611,7 @@
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E177" t="s">
         <v>48</v>
@@ -11623,7 +11620,7 @@
         <v>124</v>
       </c>
       <c r="G177" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L177" t="s">
         <v>20</v>
@@ -11673,72 +11670,72 @@
         <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E178" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="F178" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="G178" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L178" t="s">
         <v>20</v>
       </c>
       <c r="M178">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="N178">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="O178">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="P178">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="Q178">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="R178">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="S178">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="T178">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="U178">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="V178">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="W178">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>191</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
         <v>188</v>
       </c>
-      <c r="B179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" t="s">
-        <v>15</v>
-      </c>
-      <c r="D179" t="s">
-        <v>189</v>
-      </c>
       <c r="E179" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F179" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G179" t="s">
         <v>19</v>
@@ -11782,7 +11779,7 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -11791,13 +11788,13 @@
         <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E180" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F180" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G180" t="s">
         <v>19</v>
@@ -11806,42 +11803,42 @@
         <v>20</v>
       </c>
       <c r="M180">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N180">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O180">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P180">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q180">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R180">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S180">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="T180">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="U180">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="V180">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="W180">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -11850,13 +11847,13 @@
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E181" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F181" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G181" t="s">
         <v>19</v>
@@ -11900,22 +11897,22 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>197</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>188</v>
+      </c>
+      <c r="E182" t="s">
         <v>198</v>
       </c>
-      <c r="B182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C182" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" t="s">
-        <v>189</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>199</v>
-      </c>
-      <c r="F182" t="s">
-        <v>194</v>
       </c>
       <c r="G182" t="s">
         <v>19</v>
@@ -11959,7 +11956,7 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -11968,13 +11965,13 @@
         <v>15</v>
       </c>
       <c r="D183" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E183" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F183" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G183" t="s">
         <v>19</v>
@@ -11983,42 +11980,42 @@
         <v>20</v>
       </c>
       <c r="M183">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="N183">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="O183">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="P183">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="Q183">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="R183">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="S183">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="T183">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="U183">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="V183">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="W183">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -12027,13 +12024,13 @@
         <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E184" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F184" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G184" t="s">
         <v>19</v>
@@ -12042,60 +12039,60 @@
         <v>20</v>
       </c>
       <c r="M184">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="N184">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="O184">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="P184">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="Q184">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="R184">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="S184">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="T184">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="U184">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="V184">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="W184">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>203</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
+        <v>188</v>
+      </c>
+      <c r="E185" t="s">
         <v>204</v>
       </c>
-      <c r="B185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C185" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185" t="s">
-        <v>189</v>
-      </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>205</v>
       </c>
-      <c r="F185" t="s">
-        <v>206</v>
-      </c>
       <c r="G185" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L185" t="s">
         <v>20</v>
@@ -12136,125 +12133,125 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>203</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>188</v>
+      </c>
+      <c r="E186" t="s">
         <v>204</v>
-      </c>
-      <c r="B186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" t="s">
-        <v>189</v>
-      </c>
-      <c r="E186" t="s">
-        <v>205</v>
       </c>
       <c r="F186" t="s">
         <v>206</v>
       </c>
       <c r="G186" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L186" t="s">
         <v>20</v>
       </c>
       <c r="M186">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="N186">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="O186">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="P186">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="Q186">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="R186">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="S186">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="T186">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="U186">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="V186">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="W186">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>203</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>188</v>
+      </c>
+      <c r="E187" t="s">
         <v>204</v>
       </c>
-      <c r="B187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" t="s">
-        <v>189</v>
-      </c>
-      <c r="E187" t="s">
-        <v>205</v>
-      </c>
       <c r="F187" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G187" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L187" t="s">
         <v>20</v>
       </c>
       <c r="M187">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="N187">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="O187">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="P187">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q187">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="R187">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="S187">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="T187">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="U187">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="V187">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="W187">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -12263,234 +12260,234 @@
         <v>15</v>
       </c>
       <c r="D188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E188" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F188" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L188" t="s">
         <v>20</v>
       </c>
       <c r="M188">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="N188">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="O188">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="P188">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="Q188">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="R188">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="S188">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="T188">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="U188">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="V188">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="W188">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>207</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" t="s">
+        <v>188</v>
+      </c>
+      <c r="E189" t="s">
         <v>208</v>
       </c>
-      <c r="B189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C189" t="s">
-        <v>15</v>
-      </c>
-      <c r="D189" t="s">
-        <v>189</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>209</v>
       </c>
-      <c r="F189" t="s">
-        <v>210</v>
-      </c>
       <c r="G189" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L189" t="s">
         <v>20</v>
       </c>
       <c r="M189">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="N189">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="O189">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="P189">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="Q189">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="R189">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="S189">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="T189">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="U189">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="V189">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="W189">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>207</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" t="s">
+        <v>188</v>
+      </c>
+      <c r="E190" t="s">
         <v>208</v>
-      </c>
-      <c r="B190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" t="s">
-        <v>15</v>
-      </c>
-      <c r="D190" t="s">
-        <v>189</v>
-      </c>
-      <c r="E190" t="s">
-        <v>209</v>
       </c>
       <c r="F190" t="s">
         <v>210</v>
       </c>
       <c r="G190" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L190" t="s">
         <v>20</v>
       </c>
       <c r="M190">
-        <v>0.69</v>
+        <v>0.3</v>
       </c>
       <c r="N190">
-        <v>0.69</v>
+        <v>0.3</v>
       </c>
       <c r="O190">
-        <v>0.69</v>
+        <v>0.3</v>
       </c>
       <c r="P190">
-        <v>0.69</v>
+        <v>0.3</v>
       </c>
       <c r="Q190">
-        <v>0.69</v>
+        <v>0.3</v>
       </c>
       <c r="R190">
-        <v>0.69</v>
+        <v>0.3</v>
       </c>
       <c r="S190">
-        <v>0.69</v>
+        <v>0.3</v>
       </c>
       <c r="T190">
-        <v>0.69</v>
+        <v>0.3</v>
       </c>
       <c r="U190">
-        <v>0.69</v>
+        <v>0.3</v>
       </c>
       <c r="V190">
-        <v>0.69</v>
+        <v>0.3</v>
       </c>
       <c r="W190">
-        <v>0.69</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>207</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" t="s">
+        <v>188</v>
+      </c>
+      <c r="E191" t="s">
         <v>208</v>
       </c>
-      <c r="B191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C191" t="s">
-        <v>15</v>
-      </c>
-      <c r="D191" t="s">
-        <v>189</v>
-      </c>
-      <c r="E191" t="s">
-        <v>209</v>
-      </c>
       <c r="F191" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G191" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L191" t="s">
         <v>20</v>
       </c>
       <c r="M191">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N191">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O191">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P191">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q191">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="R191">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S191">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T191">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="U191">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V191">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="W191">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -12499,57 +12496,57 @@
         <v>15</v>
       </c>
       <c r="D192" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E192" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F192" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G192" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L192" t="s">
         <v>20</v>
       </c>
       <c r="M192">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="N192">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="O192">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="P192">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="Q192">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="R192">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="S192">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="T192">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="U192">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="V192">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="W192">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -12558,13 +12555,13 @@
         <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E193" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="F193" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="G193" t="s">
         <v>19</v>
@@ -12573,42 +12570,42 @@
         <v>20</v>
       </c>
       <c r="M193">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="N193">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="O193">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="P193">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="Q193">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="R193">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="S193">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="T193">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="U193">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="V193">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="W193">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -12617,57 +12614,57 @@
         <v>15</v>
       </c>
       <c r="D194" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E194" t="s">
         <v>54</v>
       </c>
       <c r="F194" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="G194" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L194" t="s">
         <v>20</v>
       </c>
       <c r="M194">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="N194">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="O194">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="P194">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="Q194">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="R194">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="S194">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="T194">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="U194">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="V194">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="W194">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -12676,7 +12673,7 @@
         <v>15</v>
       </c>
       <c r="D195" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E195" t="s">
         <v>54</v>
@@ -12685,7 +12682,7 @@
         <v>216</v>
       </c>
       <c r="G195" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L195" t="s">
         <v>20</v>
@@ -12726,7 +12723,7 @@
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -12735,13 +12732,13 @@
         <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E196" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F196" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="G196" t="s">
         <v>19</v>
@@ -12750,42 +12747,42 @@
         <v>20</v>
       </c>
       <c r="M196">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N196">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O196">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P196">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Q196">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="R196">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="S196">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="T196">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="U196">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="V196">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W196">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -12794,13 +12791,13 @@
         <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E197" t="s">
         <v>17</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G197" t="s">
         <v>19</v>
@@ -12844,7 +12841,7 @@
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -12853,13 +12850,13 @@
         <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E198" t="s">
         <v>17</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G198" t="s">
         <v>19</v>
@@ -12912,13 +12909,13 @@
         <v>15</v>
       </c>
       <c r="D199" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E199" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G199" t="s">
         <v>19</v>
@@ -12962,7 +12959,7 @@
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -12971,13 +12968,13 @@
         <v>15</v>
       </c>
       <c r="D200" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E200" t="s">
         <v>24</v>
       </c>
       <c r="F200" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G200" t="s">
         <v>19</v>
@@ -13030,13 +13027,13 @@
         <v>15</v>
       </c>
       <c r="D201" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E201" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F201" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G201" t="s">
         <v>19</v>
@@ -13048,39 +13045,52 @@
         <v>0.3</v>
       </c>
       <c r="N201">
+        <f ca="1">M201</f>
         <v>0.3</v>
       </c>
       <c r="O201">
+        <f t="shared" ref="O201:W201" ca="1" si="0">N201</f>
         <v>0.3</v>
       </c>
       <c r="P201">
+        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="Q201">
+        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="R201">
+        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="S201">
+        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="T201">
+        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="U201">
+        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="V201">
+        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="W201">
-        <v>0.3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="X201" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -13089,13 +13099,13 @@
         <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E202" t="s">
         <v>28</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
         <v>19</v>
@@ -13107,52 +13117,39 @@
         <v>0.3</v>
       </c>
       <c r="N202">
-        <f ca="1">M202</f>
         <v>0.3</v>
       </c>
       <c r="O202">
-        <f t="shared" ref="O202:W202" ca="1" si="0">N202</f>
         <v>0.3</v>
       </c>
       <c r="P202">
-        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="Q202">
-        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="R202">
-        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="S202">
-        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="T202">
-        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="U202">
-        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="V202">
-        <f t="shared" ca="1" si="0"/>
         <v>0.3</v>
       </c>
       <c r="W202">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="X202" t="s">
-        <v>221</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -13161,13 +13158,13 @@
         <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E203" t="s">
         <v>28</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
         <v>19</v>
@@ -13211,7 +13208,7 @@
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -13220,13 +13217,13 @@
         <v>15</v>
       </c>
       <c r="D204" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E204" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
         <v>19</v>
@@ -13270,7 +13267,7 @@
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -13279,13 +13276,13 @@
         <v>15</v>
       </c>
       <c r="D205" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E205" t="s">
         <v>33</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
         <v>19</v>
@@ -13329,7 +13326,7 @@
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -13338,13 +13335,13 @@
         <v>15</v>
       </c>
       <c r="D206" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E206" t="s">
         <v>33</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>19</v>
@@ -13397,13 +13394,13 @@
         <v>15</v>
       </c>
       <c r="D207" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E207" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>19</v>
@@ -13456,10 +13453,10 @@
         <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E208" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F208" t="s">
         <v>35</v>
@@ -13515,13 +13512,13 @@
         <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E209" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
         <v>19</v>
@@ -13574,10 +13571,10 @@
         <v>15</v>
       </c>
       <c r="D210" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E210" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F210" t="s">
         <v>38</v>
@@ -13633,13 +13630,13 @@
         <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E211" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G211" t="s">
         <v>19</v>
@@ -13692,10 +13689,10 @@
         <v>15</v>
       </c>
       <c r="D212" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E212" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F212" t="s">
         <v>41</v>
@@ -13751,13 +13748,13 @@
         <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E213" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="G213" t="s">
         <v>19</v>
@@ -13766,42 +13763,42 @@
         <v>20</v>
       </c>
       <c r="M213">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N213">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="O213">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="P213">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="Q213">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="R213">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="S213">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="T213">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="U213">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="V213">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="W213">
-        <v>0.3</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -13810,57 +13807,57 @@
         <v>15</v>
       </c>
       <c r="D214" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E214" t="s">
         <v>120</v>
       </c>
       <c r="F214" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G214" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L214" t="s">
         <v>20</v>
       </c>
       <c r="M214">
-        <v>1</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="N214">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="O214">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="P214">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="Q214">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="R214">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="S214">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="T214">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="U214">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="V214">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="W214">
-        <v>0.90500000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -13869,57 +13866,57 @@
         <v>15</v>
       </c>
       <c r="D215" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E215" t="s">
         <v>120</v>
       </c>
       <c r="F215" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c r="G215" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L215" t="s">
         <v>20</v>
       </c>
       <c r="M215">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="N215">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="O215">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="P215">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="Q215">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="R215">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="S215">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="T215">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="U215">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="V215">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
       <c r="W215">
-        <v>0.89500000000000002</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -13928,7 +13925,7 @@
         <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E216" t="s">
         <v>120</v>
@@ -13937,48 +13934,48 @@
         <v>121</v>
       </c>
       <c r="G216" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L216" t="s">
         <v>20</v>
       </c>
       <c r="M216">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="N216">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="O216">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="P216">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q216">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="R216">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="S216">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="T216">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="U216">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="V216">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="W216">
-        <v>0.105</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -13987,57 +13984,57 @@
         <v>15</v>
       </c>
       <c r="D217" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E217" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="F217" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="G217" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L217" t="s">
         <v>20</v>
       </c>
       <c r="M217">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N217">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O217">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P217">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q217">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R217">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S217">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T217">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U217">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V217">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W217">
-        <v>9.5000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -14046,7 +14043,7 @@
         <v>15</v>
       </c>
       <c r="D218" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E218" t="s">
         <v>44</v>
@@ -14055,48 +14052,48 @@
         <v>45</v>
       </c>
       <c r="G218" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L218" t="s">
         <v>20</v>
       </c>
       <c r="M218">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N218">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O218">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P218">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q218">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R218">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S218">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T218">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U218">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V218">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W218">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -14105,57 +14102,57 @@
         <v>15</v>
       </c>
       <c r="D219" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E219" t="s">
         <v>44</v>
       </c>
       <c r="F219" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="G219" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L219" t="s">
         <v>20</v>
       </c>
       <c r="M219">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N219">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O219">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P219">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q219">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R219">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S219">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T219">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U219">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V219">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W219">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -14164,52 +14161,52 @@
         <v>15</v>
       </c>
       <c r="D220" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E220" t="s">
         <v>44</v>
       </c>
       <c r="F220" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G220" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L220" t="s">
         <v>20</v>
       </c>
       <c r="M220">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N220">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O220">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P220">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q220">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R220">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S220">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T220">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U220">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V220">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W220">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.25">
@@ -14223,57 +14220,57 @@
         <v>15</v>
       </c>
       <c r="D221" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E221" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F221" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L221" t="s">
         <v>20</v>
       </c>
       <c r="M221">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N221">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O221">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P221">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q221">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R221">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S221">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T221">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U221">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V221">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="W221">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -14282,13 +14279,13 @@
         <v>15</v>
       </c>
       <c r="D222" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E222" t="s">
         <v>48</v>
       </c>
       <c r="F222" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="G222" t="s">
         <v>19</v>
@@ -14332,7 +14329,7 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -14341,7 +14338,7 @@
         <v>15</v>
       </c>
       <c r="D223" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E223" t="s">
         <v>48</v>
@@ -14350,43 +14347,43 @@
         <v>51</v>
       </c>
       <c r="G223" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L223" t="s">
         <v>20</v>
       </c>
       <c r="M223">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N223">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O223">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="P223">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q223">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="R223">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="S223">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="T223">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U223">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="V223">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="W223">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.25">
@@ -14400,175 +14397,185 @@
         <v>15</v>
       </c>
       <c r="D224" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="E224" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F224" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="G224" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L224" t="s">
         <v>20</v>
       </c>
       <c r="M224">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="N224">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="O224">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="P224">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q224">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R224">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S224">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T224">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="U224">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="V224">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="W224">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>235</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" t="s">
         <v>233</v>
       </c>
-      <c r="B225" t="s">
-        <v>5</v>
-      </c>
-      <c r="C225" t="s">
-        <v>15</v>
-      </c>
-      <c r="D225" t="s">
-        <v>234</v>
-      </c>
       <c r="E225" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="F225" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G225" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L225" t="s">
         <v>20</v>
       </c>
       <c r="M225">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="N225">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="O225">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="P225">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="R225">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="S225">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="T225">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="U225">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="V225">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C226" t="s">
         <v>15</v>
       </c>
       <c r="D226" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E226" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F226" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G226" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L226" t="s">
         <v>20</v>
       </c>
       <c r="M226">
-        <v>0.22</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N226">
-        <v>0.22</v>
+        <f t="shared" ref="N226:W241" ca="1" si="1">M226</f>
+        <v>2.7E-2</v>
       </c>
       <c r="O226">
-        <v>0.22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="P226">
-        <v>0.22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="Q226">
-        <v>0.22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="R226">
-        <v>0.22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="S226">
-        <v>0.22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="T226">
-        <v>0.22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="U226">
-        <v>0.22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="V226">
-        <v>0.22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
       <c r="W226">
-        <v>0.22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
@@ -14577,13 +14584,13 @@
         <v>15</v>
       </c>
       <c r="D227" t="s">
+        <v>239</v>
+      </c>
+      <c r="E227" t="s">
         <v>240</v>
       </c>
-      <c r="E227" t="s">
+      <c r="F227" t="s">
         <v>241</v>
-      </c>
-      <c r="F227" t="s">
-        <v>242</v>
       </c>
       <c r="G227" t="s">
         <v>19</v>
@@ -14595,7 +14602,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="N227">
-        <f t="shared" ref="N227:W242" ca="1" si="1">M227</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.7E-2</v>
       </c>
       <c r="O227">
@@ -14646,13 +14653,13 @@
         <v>15</v>
       </c>
       <c r="D228" t="s">
+        <v>239</v>
+      </c>
+      <c r="E228" t="s">
         <v>240</v>
       </c>
-      <c r="E228" t="s">
+      <c r="F228" t="s">
         <v>241</v>
-      </c>
-      <c r="F228" t="s">
-        <v>242</v>
       </c>
       <c r="G228" t="s">
         <v>19</v>
@@ -14715,13 +14722,13 @@
         <v>15</v>
       </c>
       <c r="D229" t="s">
+        <v>239</v>
+      </c>
+      <c r="E229" t="s">
         <v>240</v>
       </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
         <v>241</v>
-      </c>
-      <c r="F229" t="s">
-        <v>242</v>
       </c>
       <c r="G229" t="s">
         <v>19</v>
@@ -14784,13 +14791,13 @@
         <v>15</v>
       </c>
       <c r="D230" t="s">
+        <v>239</v>
+      </c>
+      <c r="E230" t="s">
         <v>240</v>
       </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
         <v>241</v>
-      </c>
-      <c r="F230" t="s">
-        <v>242</v>
       </c>
       <c r="G230" t="s">
         <v>19</v>
@@ -14853,13 +14860,13 @@
         <v>15</v>
       </c>
       <c r="D231" t="s">
+        <v>239</v>
+      </c>
+      <c r="E231" t="s">
         <v>240</v>
       </c>
-      <c r="E231" t="s">
+      <c r="F231" t="s">
         <v>241</v>
-      </c>
-      <c r="F231" t="s">
-        <v>242</v>
       </c>
       <c r="G231" t="s">
         <v>19</v>
@@ -14922,13 +14929,13 @@
         <v>15</v>
       </c>
       <c r="D232" t="s">
+        <v>239</v>
+      </c>
+      <c r="E232" t="s">
         <v>240</v>
       </c>
-      <c r="E232" t="s">
+      <c r="F232" t="s">
         <v>241</v>
-      </c>
-      <c r="F232" t="s">
-        <v>242</v>
       </c>
       <c r="G232" t="s">
         <v>19</v>
@@ -14991,13 +14998,13 @@
         <v>15</v>
       </c>
       <c r="D233" t="s">
+        <v>239</v>
+      </c>
+      <c r="E233" t="s">
         <v>240</v>
       </c>
-      <c r="E233" t="s">
+      <c r="F233" t="s">
         <v>241</v>
-      </c>
-      <c r="F233" t="s">
-        <v>242</v>
       </c>
       <c r="G233" t="s">
         <v>19</v>
@@ -15060,13 +15067,13 @@
         <v>15</v>
       </c>
       <c r="D234" t="s">
+        <v>239</v>
+      </c>
+      <c r="E234" t="s">
         <v>240</v>
       </c>
-      <c r="E234" t="s">
+      <c r="F234" t="s">
         <v>241</v>
-      </c>
-      <c r="F234" t="s">
-        <v>242</v>
       </c>
       <c r="G234" t="s">
         <v>19</v>
@@ -15129,13 +15136,13 @@
         <v>15</v>
       </c>
       <c r="D235" t="s">
+        <v>239</v>
+      </c>
+      <c r="E235" t="s">
         <v>240</v>
       </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
         <v>241</v>
-      </c>
-      <c r="F235" t="s">
-        <v>242</v>
       </c>
       <c r="G235" t="s">
         <v>19</v>
@@ -15198,13 +15205,13 @@
         <v>15</v>
       </c>
       <c r="D236" t="s">
+        <v>239</v>
+      </c>
+      <c r="E236" t="s">
         <v>240</v>
       </c>
-      <c r="E236" t="s">
+      <c r="F236" t="s">
         <v>241</v>
-      </c>
-      <c r="F236" t="s">
-        <v>242</v>
       </c>
       <c r="G236" t="s">
         <v>19</v>
@@ -15267,13 +15274,13 @@
         <v>15</v>
       </c>
       <c r="D237" t="s">
+        <v>239</v>
+      </c>
+      <c r="E237" t="s">
         <v>240</v>
       </c>
-      <c r="E237" t="s">
+      <c r="F237" t="s">
         <v>241</v>
-      </c>
-      <c r="F237" t="s">
-        <v>242</v>
       </c>
       <c r="G237" t="s">
         <v>19</v>
@@ -15327,7 +15334,7 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
         <v>4</v>
@@ -15336,67 +15343,67 @@
         <v>15</v>
       </c>
       <c r="D238" t="s">
+        <v>239</v>
+      </c>
+      <c r="E238" t="s">
         <v>240</v>
       </c>
-      <c r="E238" t="s">
+      <c r="F238" t="s">
         <v>241</v>
       </c>
-      <c r="F238" t="s">
-        <v>242</v>
-      </c>
       <c r="G238" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="L238" t="s">
         <v>20</v>
       </c>
       <c r="M238">
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="N238">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="O238">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="P238">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q238">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="R238">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="S238">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="T238">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="U238">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="V238">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="W238">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B239" t="s">
         <v>4</v>
@@ -15405,13 +15412,13 @@
         <v>15</v>
       </c>
       <c r="D239" t="s">
+        <v>239</v>
+      </c>
+      <c r="E239" t="s">
         <v>240</v>
       </c>
-      <c r="E239" t="s">
+      <c r="F239" t="s">
         <v>241</v>
-      </c>
-      <c r="F239" t="s">
-        <v>242</v>
       </c>
       <c r="G239" t="s">
         <v>46</v>
@@ -15474,13 +15481,13 @@
         <v>15</v>
       </c>
       <c r="D240" t="s">
+        <v>239</v>
+      </c>
+      <c r="E240" t="s">
         <v>240</v>
       </c>
-      <c r="E240" t="s">
+      <c r="F240" t="s">
         <v>241</v>
-      </c>
-      <c r="F240" t="s">
-        <v>242</v>
       </c>
       <c r="G240" t="s">
         <v>46</v>
@@ -15543,13 +15550,13 @@
         <v>15</v>
       </c>
       <c r="D241" t="s">
+        <v>239</v>
+      </c>
+      <c r="E241" t="s">
         <v>240</v>
       </c>
-      <c r="E241" t="s">
+      <c r="F241" t="s">
         <v>241</v>
-      </c>
-      <c r="F241" t="s">
-        <v>242</v>
       </c>
       <c r="G241" t="s">
         <v>46</v>
@@ -15612,13 +15619,13 @@
         <v>15</v>
       </c>
       <c r="D242" t="s">
+        <v>239</v>
+      </c>
+      <c r="E242" t="s">
         <v>240</v>
       </c>
-      <c r="E242" t="s">
+      <c r="F242" t="s">
         <v>241</v>
-      </c>
-      <c r="F242" t="s">
-        <v>242</v>
       </c>
       <c r="G242" t="s">
         <v>46</v>
@@ -15630,43 +15637,43 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N242">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="N242:W250" ca="1" si="2">M242</f>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O242">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P242">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q242">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="R242">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="S242">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="T242">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="U242">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="V242">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="W242">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
@@ -15681,13 +15688,13 @@
         <v>15</v>
       </c>
       <c r="D243" t="s">
+        <v>239</v>
+      </c>
+      <c r="E243" t="s">
         <v>240</v>
       </c>
-      <c r="E243" t="s">
+      <c r="F243" t="s">
         <v>241</v>
-      </c>
-      <c r="F243" t="s">
-        <v>242</v>
       </c>
       <c r="G243" t="s">
         <v>46</v>
@@ -15699,7 +15706,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N243">
-        <f t="shared" ref="N243:W251" ca="1" si="2">M243</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O243">
@@ -15750,13 +15757,13 @@
         <v>15</v>
       </c>
       <c r="D244" t="s">
+        <v>239</v>
+      </c>
+      <c r="E244" t="s">
         <v>240</v>
       </c>
-      <c r="E244" t="s">
+      <c r="F244" t="s">
         <v>241</v>
-      </c>
-      <c r="F244" t="s">
-        <v>242</v>
       </c>
       <c r="G244" t="s">
         <v>46</v>
@@ -15819,13 +15826,13 @@
         <v>15</v>
       </c>
       <c r="D245" t="s">
+        <v>239</v>
+      </c>
+      <c r="E245" t="s">
         <v>240</v>
       </c>
-      <c r="E245" t="s">
+      <c r="F245" t="s">
         <v>241</v>
-      </c>
-      <c r="F245" t="s">
-        <v>242</v>
       </c>
       <c r="G245" t="s">
         <v>46</v>
@@ -15888,13 +15895,13 @@
         <v>15</v>
       </c>
       <c r="D246" t="s">
+        <v>239</v>
+      </c>
+      <c r="E246" t="s">
         <v>240</v>
       </c>
-      <c r="E246" t="s">
+      <c r="F246" t="s">
         <v>241</v>
-      </c>
-      <c r="F246" t="s">
-        <v>242</v>
       </c>
       <c r="G246" t="s">
         <v>46</v>
@@ -15957,13 +15964,13 @@
         <v>15</v>
       </c>
       <c r="D247" t="s">
+        <v>239</v>
+      </c>
+      <c r="E247" t="s">
         <v>240</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>241</v>
-      </c>
-      <c r="F247" t="s">
-        <v>242</v>
       </c>
       <c r="G247" t="s">
         <v>46</v>
@@ -16026,13 +16033,13 @@
         <v>15</v>
       </c>
       <c r="D248" t="s">
+        <v>239</v>
+      </c>
+      <c r="E248" t="s">
         <v>240</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F248" t="s">
         <v>241</v>
-      </c>
-      <c r="F248" t="s">
-        <v>242</v>
       </c>
       <c r="G248" t="s">
         <v>46</v>
@@ -16095,13 +16102,13 @@
         <v>15</v>
       </c>
       <c r="D249" t="s">
+        <v>239</v>
+      </c>
+      <c r="E249" t="s">
         <v>240</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
         <v>241</v>
-      </c>
-      <c r="F249" t="s">
-        <v>242</v>
       </c>
       <c r="G249" t="s">
         <v>46</v>
@@ -16113,7 +16120,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N249">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">M249</f>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O249">
@@ -16158,73 +16165,76 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>15</v>
       </c>
       <c r="D250" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E250" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="F250" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="G250" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L250" t="s">
         <v>20</v>
       </c>
       <c r="M250">
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="N250">
         <f ca="1">M250</f>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="O250">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="P250">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="Q250">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="R250">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="S250">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="T250">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="U250">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="V250">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
       </c>
       <c r="W250">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.35</v>
+      </c>
+      <c r="X250" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -16233,13 +16243,13 @@
         <v>15</v>
       </c>
       <c r="D251" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E251" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F251" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G251" t="s">
         <v>19</v>
@@ -16248,55 +16258,42 @@
         <v>20</v>
       </c>
       <c r="M251">
-        <v>0.35</v>
+        <v>0.47148606999999998</v>
       </c>
       <c r="N251">
-        <f ca="1">M251</f>
-        <v>0.35</v>
+        <v>0.47148606999999998</v>
       </c>
       <c r="O251">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.47148606999999998</v>
       </c>
       <c r="P251">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.47148606999999998</v>
       </c>
       <c r="Q251">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.47148606999999998</v>
       </c>
       <c r="R251">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.47148606999999998</v>
       </c>
       <c r="S251">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.47148606999999998</v>
       </c>
       <c r="T251">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.47148606999999998</v>
       </c>
       <c r="U251">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.47148606999999998</v>
       </c>
       <c r="V251">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.47148606999999998</v>
       </c>
       <c r="W251">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
-      </c>
-      <c r="X251" t="s">
-        <v>221</v>
+        <v>0.47148606999999998</v>
       </c>
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -16305,13 +16302,13 @@
         <v>15</v>
       </c>
       <c r="D252" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E252" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F252" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G252" t="s">
         <v>19</v>
@@ -16320,42 +16317,42 @@
         <v>20</v>
       </c>
       <c r="M252">
-        <v>0.47148606999999998</v>
+        <v>0.95</v>
       </c>
       <c r="N252">
-        <v>0.47148606999999998</v>
+        <v>0.95</v>
       </c>
       <c r="O252">
-        <v>0.47148606999999998</v>
+        <v>0.95</v>
       </c>
       <c r="P252">
-        <v>0.47148606999999998</v>
+        <v>0.95</v>
       </c>
       <c r="Q252">
-        <v>0.47148606999999998</v>
+        <v>0.95</v>
       </c>
       <c r="R252">
-        <v>0.47148606999999998</v>
+        <v>0.95</v>
       </c>
       <c r="S252">
-        <v>0.47148606999999998</v>
+        <v>0.95</v>
       </c>
       <c r="T252">
-        <v>0.47148606999999998</v>
+        <v>0.95</v>
       </c>
       <c r="U252">
-        <v>0.47148606999999998</v>
+        <v>0.95</v>
       </c>
       <c r="V252">
-        <v>0.47148606999999998</v>
+        <v>0.95</v>
       </c>
       <c r="W252">
-        <v>0.47148606999999998</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -16364,13 +16361,13 @@
         <v>15</v>
       </c>
       <c r="D253" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="E253" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F253" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G253" t="s">
         <v>19</v>
@@ -16379,57 +16376,60 @@
         <v>20</v>
       </c>
       <c r="M253">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="N253">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="O253">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="P253">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="Q253">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="R253">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="S253">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="T253">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="U253">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="V253">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="W253">
-        <v>0.95</v>
+        <v>0.01</v>
+      </c>
+      <c r="X253" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>269</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" t="s">
+        <v>61</v>
+      </c>
+      <c r="E254" t="s">
         <v>266</v>
       </c>
-      <c r="B254" t="s">
-        <v>5</v>
-      </c>
-      <c r="C254" t="s">
-        <v>15</v>
-      </c>
-      <c r="D254" t="s">
-        <v>16</v>
-      </c>
-      <c r="E254" t="s">
+      <c r="F254" t="s">
         <v>267</v>
-      </c>
-      <c r="F254" t="s">
-        <v>268</v>
       </c>
       <c r="G254" t="s">
         <v>19</v>
@@ -16471,7 +16471,7 @@
         <v>0.01</v>
       </c>
       <c r="X254" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:24" x14ac:dyDescent="0.25">
@@ -16485,13 +16485,13 @@
         <v>15</v>
       </c>
       <c r="D255" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E255" t="s">
+        <v>266</v>
+      </c>
+      <c r="F255" t="s">
         <v>267</v>
-      </c>
-      <c r="F255" t="s">
-        <v>268</v>
       </c>
       <c r="G255" t="s">
         <v>19</v>
@@ -16533,7 +16533,7 @@
         <v>0.01</v>
       </c>
       <c r="X255" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="256" spans="1:24" x14ac:dyDescent="0.25">
@@ -16547,13 +16547,13 @@
         <v>15</v>
       </c>
       <c r="D256" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E256" t="s">
+        <v>266</v>
+      </c>
+      <c r="F256" t="s">
         <v>267</v>
-      </c>
-      <c r="F256" t="s">
-        <v>268</v>
       </c>
       <c r="G256" t="s">
         <v>19</v>
@@ -16595,7 +16595,7 @@
         <v>0.01</v>
       </c>
       <c r="X256" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.25">
@@ -16609,13 +16609,13 @@
         <v>15</v>
       </c>
       <c r="D257" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E257" t="s">
+        <v>266</v>
+      </c>
+      <c r="F257" t="s">
         <v>267</v>
-      </c>
-      <c r="F257" t="s">
-        <v>268</v>
       </c>
       <c r="G257" t="s">
         <v>19</v>
@@ -16657,7 +16657,7 @@
         <v>0.01</v>
       </c>
       <c r="X257" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="258" spans="1:24" x14ac:dyDescent="0.25">
@@ -16671,13 +16671,13 @@
         <v>15</v>
       </c>
       <c r="D258" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E258" t="s">
+        <v>266</v>
+      </c>
+      <c r="F258" t="s">
         <v>267</v>
-      </c>
-      <c r="F258" t="s">
-        <v>268</v>
       </c>
       <c r="G258" t="s">
         <v>19</v>
@@ -16719,7 +16719,7 @@
         <v>0.01</v>
       </c>
       <c r="X258" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.25">
@@ -16733,13 +16733,13 @@
         <v>15</v>
       </c>
       <c r="D259" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E259" t="s">
+        <v>266</v>
+      </c>
+      <c r="F259" t="s">
         <v>267</v>
-      </c>
-      <c r="F259" t="s">
-        <v>268</v>
       </c>
       <c r="G259" t="s">
         <v>19</v>
@@ -16781,7 +16781,7 @@
         <v>0.01</v>
       </c>
       <c r="X259" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.25">
@@ -16795,13 +16795,13 @@
         <v>15</v>
       </c>
       <c r="D260" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="E260" t="s">
+        <v>266</v>
+      </c>
+      <c r="F260" t="s">
         <v>267</v>
-      </c>
-      <c r="F260" t="s">
-        <v>268</v>
       </c>
       <c r="G260" t="s">
         <v>19</v>
@@ -16843,7 +16843,7 @@
         <v>0.01</v>
       </c>
       <c r="X260" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.25">
@@ -16857,13 +16857,13 @@
         <v>15</v>
       </c>
       <c r="D261" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E261" t="s">
+        <v>266</v>
+      </c>
+      <c r="F261" t="s">
         <v>267</v>
-      </c>
-      <c r="F261" t="s">
-        <v>268</v>
       </c>
       <c r="G261" t="s">
         <v>19</v>
@@ -16905,7 +16905,7 @@
         <v>0.01</v>
       </c>
       <c r="X261" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.25">
@@ -16919,13 +16919,13 @@
         <v>15</v>
       </c>
       <c r="D262" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="E262" t="s">
+        <v>266</v>
+      </c>
+      <c r="F262" t="s">
         <v>267</v>
-      </c>
-      <c r="F262" t="s">
-        <v>268</v>
       </c>
       <c r="G262" t="s">
         <v>19</v>
@@ -16967,12 +16967,12 @@
         <v>0.01</v>
       </c>
       <c r="X262" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -16981,75 +16981,75 @@
         <v>15</v>
       </c>
       <c r="D263" t="s">
+        <v>16</v>
+      </c>
+      <c r="E263" t="s">
+        <v>266</v>
+      </c>
+      <c r="F263" t="s">
         <v>279</v>
       </c>
-      <c r="E263" t="s">
-        <v>267</v>
-      </c>
-      <c r="F263" t="s">
+      <c r="G263" t="s">
+        <v>19</v>
+      </c>
+      <c r="L263" t="s">
+        <v>20</v>
+      </c>
+      <c r="M263">
+        <v>0.03</v>
+      </c>
+      <c r="N263">
+        <v>0.03</v>
+      </c>
+      <c r="O263">
+        <v>0.03</v>
+      </c>
+      <c r="P263">
+        <v>0.03</v>
+      </c>
+      <c r="Q263">
+        <v>0.03</v>
+      </c>
+      <c r="R263">
+        <v>0.03</v>
+      </c>
+      <c r="S263">
+        <v>0.03</v>
+      </c>
+      <c r="T263">
+        <v>0.03</v>
+      </c>
+      <c r="U263">
+        <v>0.03</v>
+      </c>
+      <c r="V263">
+        <v>0.03</v>
+      </c>
+      <c r="W263">
+        <v>0.03</v>
+      </c>
+      <c r="X263" t="s">
         <v>268</v>
-      </c>
-      <c r="G263" t="s">
-        <v>19</v>
-      </c>
-      <c r="L263" t="s">
-        <v>20</v>
-      </c>
-      <c r="M263">
-        <v>0.01</v>
-      </c>
-      <c r="N263">
-        <v>0.01</v>
-      </c>
-      <c r="O263">
-        <v>0.01</v>
-      </c>
-      <c r="P263">
-        <v>0.01</v>
-      </c>
-      <c r="Q263">
-        <v>0.01</v>
-      </c>
-      <c r="R263">
-        <v>0.01</v>
-      </c>
-      <c r="S263">
-        <v>0.01</v>
-      </c>
-      <c r="T263">
-        <v>0.01</v>
-      </c>
-      <c r="U263">
-        <v>0.01</v>
-      </c>
-      <c r="V263">
-        <v>0.01</v>
-      </c>
-      <c r="W263">
-        <v>0.01</v>
-      </c>
-      <c r="X263" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>269</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" t="s">
+        <v>61</v>
+      </c>
+      <c r="E264" t="s">
         <v>266</v>
       </c>
-      <c r="B264" t="s">
-        <v>5</v>
-      </c>
-      <c r="C264" t="s">
-        <v>15</v>
-      </c>
-      <c r="D264" t="s">
-        <v>16</v>
-      </c>
-      <c r="E264" t="s">
-        <v>267</v>
-      </c>
       <c r="F264" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G264" t="s">
         <v>19</v>
@@ -17091,7 +17091,7 @@
         <v>0.03</v>
       </c>
       <c r="X264" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.25">
@@ -17105,13 +17105,13 @@
         <v>15</v>
       </c>
       <c r="D265" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E265" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F265" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G265" t="s">
         <v>19</v>
@@ -17153,7 +17153,7 @@
         <v>0.03</v>
       </c>
       <c r="X265" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="266" spans="1:24" x14ac:dyDescent="0.25">
@@ -17167,13 +17167,13 @@
         <v>15</v>
       </c>
       <c r="D266" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="E266" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F266" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G266" t="s">
         <v>19</v>
@@ -17215,7 +17215,7 @@
         <v>0.03</v>
       </c>
       <c r="X266" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="267" spans="1:24" x14ac:dyDescent="0.25">
@@ -17229,13 +17229,13 @@
         <v>15</v>
       </c>
       <c r="D267" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E267" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F267" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G267" t="s">
         <v>19</v>
@@ -17277,7 +17277,7 @@
         <v>0.03</v>
       </c>
       <c r="X267" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.25">
@@ -17291,13 +17291,13 @@
         <v>15</v>
       </c>
       <c r="D268" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F268" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G268" t="s">
         <v>19</v>
@@ -17339,7 +17339,7 @@
         <v>0.03</v>
       </c>
       <c r="X268" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.25">
@@ -17353,13 +17353,13 @@
         <v>15</v>
       </c>
       <c r="D269" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E269" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F269" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G269" t="s">
         <v>19</v>
@@ -17401,7 +17401,7 @@
         <v>0.03</v>
       </c>
       <c r="X269" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:24" x14ac:dyDescent="0.25">
@@ -17415,13 +17415,13 @@
         <v>15</v>
       </c>
       <c r="D270" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="E270" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F270" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G270" t="s">
         <v>19</v>
@@ -17463,7 +17463,7 @@
         <v>0.03</v>
       </c>
       <c r="X270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.25">
@@ -17477,13 +17477,13 @@
         <v>15</v>
       </c>
       <c r="D271" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E271" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F271" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G271" t="s">
         <v>19</v>
@@ -17525,7 +17525,7 @@
         <v>0.03</v>
       </c>
       <c r="X271" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="272" spans="1:24" x14ac:dyDescent="0.25">
@@ -17539,13 +17539,13 @@
         <v>15</v>
       </c>
       <c r="D272" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="E272" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F272" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G272" t="s">
         <v>19</v>
@@ -17587,69 +17587,7 @@
         <v>0.03</v>
       </c>
       <c r="X272" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273" t="s">
-        <v>5</v>
-      </c>
-      <c r="C273" t="s">
-        <v>15</v>
-      </c>
-      <c r="D273" t="s">
-        <v>279</v>
-      </c>
-      <c r="E273" t="s">
-        <v>267</v>
-      </c>
-      <c r="F273" t="s">
-        <v>280</v>
-      </c>
-      <c r="G273" t="s">
-        <v>19</v>
-      </c>
-      <c r="L273" t="s">
-        <v>20</v>
-      </c>
-      <c r="M273">
-        <v>0.03</v>
-      </c>
-      <c r="N273">
-        <v>0.03</v>
-      </c>
-      <c r="O273">
-        <v>0.03</v>
-      </c>
-      <c r="P273">
-        <v>0.03</v>
-      </c>
-      <c r="Q273">
-        <v>0.03</v>
-      </c>
-      <c r="R273">
-        <v>0.03</v>
-      </c>
-      <c r="S273">
-        <v>0.03</v>
-      </c>
-      <c r="T273">
-        <v>0.03</v>
-      </c>
-      <c r="U273">
-        <v>0.03</v>
-      </c>
-      <c r="V273">
-        <v>0.03</v>
-      </c>
-      <c r="W273">
-        <v>0.03</v>
-      </c>
-      <c r="X273" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
